--- a/geoapivietnam/data/valid_provinces.xlsx
+++ b/geoapivietnam/data/valid_provinces.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhkhue/Documents/GitHub/geo-api-vietnam/geoapivietnam/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhkhue/Documents/GitHub/Personal-projects/geo-api-vietnam/geoapivietnam/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CE8A50-6A4D-0E49-9D8A-CF5297C46E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D58C094-02CA-2A4D-9D48-6557C518F790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="500" windowWidth="27340" windowHeight="16940" xr2:uid="{0B1A4771-5C37-D140-B397-5DF2F465FD81}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$70</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="142">
   <si>
     <t>An Giang</t>
   </si>
@@ -255,16 +255,233 @@
   </si>
   <si>
     <t>HCM</t>
+  </si>
+  <si>
+    <t>an giang</t>
+  </si>
+  <si>
+    <t>ba ria - vung tau</t>
+  </si>
+  <si>
+    <t>ba ria vung tau</t>
+  </si>
+  <si>
+    <t>vung tau</t>
+  </si>
+  <si>
+    <t>bac giang</t>
+  </si>
+  <si>
+    <t>bac kan</t>
+  </si>
+  <si>
+    <t>bac lieu</t>
+  </si>
+  <si>
+    <t>bac ninh</t>
+  </si>
+  <si>
+    <t>ben tre</t>
+  </si>
+  <si>
+    <t>binh dinh</t>
+  </si>
+  <si>
+    <t>binh duong</t>
+  </si>
+  <si>
+    <t>binh phuoc</t>
+  </si>
+  <si>
+    <t>binh thuan</t>
+  </si>
+  <si>
+    <t>ca mau</t>
+  </si>
+  <si>
+    <t>can tho</t>
+  </si>
+  <si>
+    <t>cao bang</t>
+  </si>
+  <si>
+    <t>da nang</t>
+  </si>
+  <si>
+    <t>dak lak</t>
+  </si>
+  <si>
+    <t>dak nong</t>
+  </si>
+  <si>
+    <t>dien bien</t>
+  </si>
+  <si>
+    <t>dong nai</t>
+  </si>
+  <si>
+    <t>dong thap</t>
+  </si>
+  <si>
+    <t>gia lai</t>
+  </si>
+  <si>
+    <t>ha giang</t>
+  </si>
+  <si>
+    <t>ha nam</t>
+  </si>
+  <si>
+    <t>hanoi</t>
+  </si>
+  <si>
+    <t>ha noi</t>
+  </si>
+  <si>
+    <t>ha tinh</t>
+  </si>
+  <si>
+    <t>hai duong</t>
+  </si>
+  <si>
+    <t>hai phong</t>
+  </si>
+  <si>
+    <t>hau giang</t>
+  </si>
+  <si>
+    <t>ho chi minh</t>
+  </si>
+  <si>
+    <t>hcm</t>
+  </si>
+  <si>
+    <t>hoa binh</t>
+  </si>
+  <si>
+    <t>hung yen</t>
+  </si>
+  <si>
+    <t>khanh hoa</t>
+  </si>
+  <si>
+    <t>kien giang</t>
+  </si>
+  <si>
+    <t>kon tum</t>
+  </si>
+  <si>
+    <t>lai chau</t>
+  </si>
+  <si>
+    <t>lam dong</t>
+  </si>
+  <si>
+    <t>lang son</t>
+  </si>
+  <si>
+    <t>lao cai</t>
+  </si>
+  <si>
+    <t>long an</t>
+  </si>
+  <si>
+    <t>nam dinh</t>
+  </si>
+  <si>
+    <t>nghe an</t>
+  </si>
+  <si>
+    <t>ninh binh</t>
+  </si>
+  <si>
+    <t>ninh thuan</t>
+  </si>
+  <si>
+    <t>phu tho</t>
+  </si>
+  <si>
+    <t>phu yen</t>
+  </si>
+  <si>
+    <t>quang binh</t>
+  </si>
+  <si>
+    <t>quang nam</t>
+  </si>
+  <si>
+    <t>quang ngai</t>
+  </si>
+  <si>
+    <t>quang ninh</t>
+  </si>
+  <si>
+    <t>quang tri</t>
+  </si>
+  <si>
+    <t>soc trang</t>
+  </si>
+  <si>
+    <t>son la</t>
+  </si>
+  <si>
+    <t>tay nguyen</t>
+  </si>
+  <si>
+    <t>tay ninh</t>
+  </si>
+  <si>
+    <t>thai binh</t>
+  </si>
+  <si>
+    <t>thai nguyen</t>
+  </si>
+  <si>
+    <t>thanh hoa</t>
+  </si>
+  <si>
+    <t>thua thien - hue</t>
+  </si>
+  <si>
+    <t>thua thien hue</t>
+  </si>
+  <si>
+    <t>tien giang</t>
+  </si>
+  <si>
+    <t>tra vinh</t>
+  </si>
+  <si>
+    <t>tuyen quang</t>
+  </si>
+  <si>
+    <t>vinh long</t>
+  </si>
+  <si>
+    <t>vinh phuc</t>
+  </si>
+  <si>
+    <t>yen bai</t>
+  </si>
+  <si>
+    <t>alias_province_sul</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -290,13 +507,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -617,19 +845,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C71475A-A7FC-DC4A-B83F-2905B44D92D6}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -637,772 +866,981 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>70</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
       <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>29</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>29</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>30</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>31</v>
       </c>
       <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>32</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>33</v>
       </c>
       <c r="B38" t="s">
         <v>33</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>34</v>
       </c>
       <c r="B39" t="s">
         <v>34</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>36</v>
       </c>
       <c r="B41" t="s">
         <v>36</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>37</v>
       </c>
       <c r="B42" t="s">
         <v>37</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>38</v>
       </c>
       <c r="B43" t="s">
         <v>38</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>39</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>40</v>
       </c>
       <c r="B45" t="s">
         <v>40</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>41</v>
       </c>
       <c r="B46" t="s">
         <v>41</v>
       </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>42</v>
       </c>
       <c r="B47" t="s">
         <v>42</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>43</v>
       </c>
       <c r="B48" t="s">
         <v>43</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>44</v>
       </c>
       <c r="B49" t="s">
         <v>44</v>
       </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>45</v>
       </c>
       <c r="B50" t="s">
         <v>45</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>46</v>
       </c>
       <c r="B51" t="s">
         <v>46</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>47</v>
       </c>
       <c r="B52" t="s">
         <v>47</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>48</v>
       </c>
       <c r="B53" t="s">
         <v>48</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>49</v>
       </c>
       <c r="B54" t="s">
         <v>49</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>50</v>
       </c>
       <c r="B55" t="s">
         <v>50</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>51</v>
       </c>
       <c r="B56" t="s">
         <v>51</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>52</v>
       </c>
       <c r="B57" t="s">
         <v>52</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>53</v>
       </c>
       <c r="B58" t="s">
         <v>53</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>54</v>
       </c>
       <c r="B59" t="s">
         <v>54</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>55</v>
       </c>
       <c r="B60" t="s">
         <v>55</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>56</v>
       </c>
       <c r="B61" t="s">
         <v>56</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C61" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>57</v>
       </c>
       <c r="B62" t="s">
         <v>57</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>65</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>58</v>
       </c>
       <c r="B65" t="s">
         <v>58</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>59</v>
       </c>
       <c r="B66" t="s">
         <v>59</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>60</v>
       </c>
       <c r="B67" t="s">
         <v>60</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>61</v>
       </c>
       <c r="B68" t="s">
         <v>61</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>62</v>
       </c>
       <c r="B69" t="s">
         <v>62</v>
       </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>63</v>
       </c>
       <c r="B70" t="s">
         <v>63</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C70" xr:uid="{7C71475A-A7FC-DC4A-B83F-2905B44D92D6}"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/geoapivietnam/data/valid_provinces.xlsx
+++ b/geoapivietnam/data/valid_provinces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhkhue/Documents/GitHub/Personal-projects/geo-api-vietnam/geoapivietnam/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D58C094-02CA-2A4D-9D48-6557C518F790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4B67BE-666C-A74B-AD58-CFB81FF0A4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="500" windowWidth="27340" windowHeight="16940" xr2:uid="{0B1A4771-5C37-D140-B397-5DF2F465FD81}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$71</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="144">
   <si>
     <t>An Giang</t>
   </si>
@@ -465,6 +465,12 @@
   </si>
   <si>
     <t>alias_province_sul</t>
+  </si>
+  <si>
+    <t>Thiên - Huế</t>
+  </si>
+  <si>
+    <t>thien - hue</t>
   </si>
 </sst>
 </file>
@@ -514,17 +520,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -845,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C71475A-A7FC-DC4A-B83F-2905B44D92D6}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1756,27 +1752,27 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1784,13 +1780,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -1798,13 +1794,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1812,13 +1808,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1826,21 +1822,35 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>63</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D70">
+      <c r="D71">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
